--- a/실무_엑셀_예제_파일/Chapter01/01-005.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598038EE-6C07-49F0-B02D-AD704123DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96FEE82-855E-4CC9-90DF-273B199C894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{A4EE539A-9822-4FFE-8B7F-CE2783828AB3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A4EE539A-9822-4FFE-8B7F-CE2783828AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="발주서 예제" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'발주서 예제'!$C$11:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,14 +151,6 @@
   </si>
   <si>
     <t>상기와 같이 제품을 발주합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -710,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,15 +702,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -747,13 +728,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -834,8 +815,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,16 +845,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -870,49 +881,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,9 +1350,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
@@ -1389,598 +1366,597 @@
     <col min="11" max="12" width="9" style="1"/>
     <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.58203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.58203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.75" style="1" customWidth="1"/>
-    <col min="20" max="21" width="5.125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="5.08203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="44" t="s">
+    <row r="1" spans="2:21" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9"/>
+      <c r="C3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="49" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="9"/>
+      <c r="E5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="20" t="s">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="9"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="9"/>
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="50">
         <v>43973</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="27" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="9"/>
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="52">
         <v>43977</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="22" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:21" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="9"/>
+      <c r="C11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="38" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="M11" s="30" t="s">
+      <c r="I11" s="10"/>
+      <c r="M11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-    </row>
-    <row r="12" spans="2:21" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="23">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="9"/>
+      <c r="C12" s="22">
         <f>IF(D12="","",1)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="35">
+      <c r="D12" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="34">
         <v>10</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="10"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-    </row>
-    <row r="13" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="24">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+    </row>
+    <row r="13" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="9"/>
+      <c r="C13" s="23">
         <f>IF(D13="","",C12+1)</f>
         <v>2</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="43" t="s">
+      <c r="D13" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="64">
+        <v>30</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="11"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="24">
+      <c r="H13" s="32"/>
+      <c r="I13" s="10"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+    </row>
+    <row r="14" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="9"/>
+      <c r="C14" s="23">
         <f t="shared" ref="C14:C25" si="0">IF(D14="","",C13+1)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="34">
+      <c r="D14" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="33">
         <v>50</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="11"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="59" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="10"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="60"/>
-      <c r="P14" s="31" t="s">
+      <c r="O14" s="47"/>
+      <c r="P14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="31" t="s">
+      <c r="Q14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-    </row>
-    <row r="15" spans="2:21" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="24">
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="2:21" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+      <c r="C15" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="34">
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="33">
         <v>3</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="11"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="46" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="10"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="35">
+      <c r="O15" s="48"/>
+      <c r="P15" s="34">
         <v>10</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="Q15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-    </row>
-    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="24">
+      <c r="R15" s="31"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+    </row>
+    <row r="16" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="43" t="s">
+      <c r="D16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="64">
+        <v>10</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="11"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="47" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="10"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="36" t="s">
+      <c r="O16" s="49"/>
+      <c r="P16" s="64">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-    </row>
-    <row r="17" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="24">
+      <c r="R16" s="32"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+    </row>
+    <row r="17" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="9"/>
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="43" t="s">
+      <c r="D17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="64">
+        <v>50</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="11"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="47" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="10"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="47"/>
-      <c r="P17" s="34">
+      <c r="O17" s="49"/>
+      <c r="P17" s="33">
         <v>50</v>
       </c>
-      <c r="Q17" s="36" t="s">
+      <c r="Q17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-    </row>
-    <row r="18" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="24" t="str">
+      <c r="R17" s="32"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="9"/>
+      <c r="C18" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="11"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="53" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="10"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="34">
+      <c r="O18" s="41"/>
+      <c r="P18" s="33">
         <v>3</v>
       </c>
-      <c r="Q18" s="36" t="s">
+      <c r="Q18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-    </row>
-    <row r="19" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="24" t="str">
+      <c r="R18" s="32"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+    </row>
+    <row r="19" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9"/>
+      <c r="C19" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="11"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="53" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="10"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="54"/>
-      <c r="P19" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="36" t="s">
+      <c r="O19" s="41"/>
+      <c r="P19" s="64">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="24" t="str">
+      <c r="R19" s="32"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+    </row>
+    <row r="20" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9"/>
+      <c r="C20" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="11"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="53" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="10"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="34" t="s">
+      <c r="O20" s="41"/>
+      <c r="P20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="36" t="s">
+      <c r="Q20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="33"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-    </row>
-    <row r="21" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="24" t="str">
+      <c r="R20" s="32"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9"/>
+      <c r="C21" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="11"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-    </row>
-    <row r="22" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="24" t="str">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="10"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+    </row>
+    <row r="22" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9"/>
+      <c r="C22" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="11"/>
-      <c r="M22" s="30" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="10"/>
+      <c r="M22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-    </row>
-    <row r="23" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="24" t="str">
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+    </row>
+    <row r="23" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9"/>
+      <c r="C23" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="11"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-    </row>
-    <row r="24" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="24" t="str">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="10"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9"/>
+      <c r="C24" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="11"/>
-      <c r="M24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-    </row>
-    <row r="25" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="24" t="str">
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="10"/>
+      <c r="M24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9"/>
+      <c r="C25" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="65" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="9"/>
+      <c r="C26" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="18">
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="17">
         <f>SUM(F12:F25)</f>
-        <v>63</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="2:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="C11:H26" xr:uid="{2D79E9F4-2E2F-4E63-845D-BA89FC7BD038}">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="G26:H26"/>
@@ -1997,21 +1973,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
